--- a/AG_intervals.xlsx
+++ b/AG_intervals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="90">
   <si>
     <t>PCM</t>
   </si>
@@ -46,7 +46,7 @@
     <t>event</t>
   </si>
   <si>
-    <t>duration_days</t>
+    <t>interval_duration</t>
   </si>
   <si>
     <t>Manuel Ulloa Elías</t>
@@ -250,7 +250,7 @@
     <t>Somos Perú</t>
   </si>
   <si>
-    <t>Fernando Belaúnde Terry</t>
+    <t>Fernando Belaúnde Terry (2.º gob.)</t>
   </si>
   <si>
     <t>Alan García</t>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Pedro Pablo Kuczynski</t>
-  </si>
-  <si>
-    <t>Martín Vizcarra y Pedro Pablo Kuczynski</t>
   </si>
   <si>
     <t>Martín Vizcarra</t>
@@ -648,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2622,13 +2619,13 @@
         <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="2">
         <v>42995</v>
       </c>
       <c r="E57" s="2">
-        <v>43192</v>
+        <v>43182</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2637,7 +2634,7 @@
         <v>42995</v>
       </c>
       <c r="H57" s="2">
-        <v>43192</v>
+        <v>43182</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2646,34 +2643,34 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="2">
+        <v>43182</v>
+      </c>
+      <c r="E58" s="2">
         <v>43192</v>
       </c>
-      <c r="E58" s="2">
-        <v>43532</v>
-      </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" s="2">
+        <v>43182</v>
+      </c>
+      <c r="H58" s="2">
         <v>43192</v>
       </c>
-      <c r="H58" s="2">
-        <v>43532</v>
-      </c>
       <c r="I58">
         <v>0</v>
       </c>
@@ -2681,33 +2678,33 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>340</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="2">
-        <v>43535</v>
+        <v>43192</v>
       </c>
       <c r="E59" s="2">
-        <v>43738</v>
+        <v>43532</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" s="2">
-        <v>43535</v>
+        <v>43192</v>
       </c>
       <c r="H59" s="2">
-        <v>43738</v>
+        <v>43532</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2716,34 +2713,34 @@
         <v>1</v>
       </c>
       <c r="K59">
-        <v>203</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="2">
+        <v>43535</v>
+      </c>
+      <c r="E60" s="2">
         <v>43738</v>
       </c>
-      <c r="E60" s="2">
-        <v>44027</v>
-      </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" s="2">
+        <v>43535</v>
+      </c>
+      <c r="H60" s="2">
         <v>43738</v>
       </c>
-      <c r="H60" s="2">
-        <v>44027</v>
-      </c>
       <c r="I60">
         <v>0</v>
       </c>
@@ -2751,69 +2748,69 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <v>289</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E61" s="2">
         <v>44027</v>
       </c>
-      <c r="E61" s="2">
-        <v>44049</v>
-      </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H61" s="2">
         <v>44027</v>
       </c>
-      <c r="H61" s="2">
-        <v>44049</v>
-      </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61">
-        <v>22</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="2">
+        <v>44027</v>
+      </c>
+      <c r="E62" s="2">
         <v>44049</v>
       </c>
-      <c r="E62" s="2">
-        <v>44145</v>
-      </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" s="2">
+        <v>44027</v>
+      </c>
+      <c r="H62" s="2">
         <v>44049</v>
       </c>
-      <c r="H62" s="2">
-        <v>44145</v>
-      </c>
       <c r="I62">
         <v>1</v>
       </c>
@@ -2821,68 +2818,68 @@
         <v>1</v>
       </c>
       <c r="K62">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D63" s="2">
-        <v>44146</v>
+        <v>44049</v>
       </c>
       <c r="E63" s="2">
-        <v>44152</v>
+        <v>44145</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" s="2">
-        <v>44146</v>
+        <v>44049</v>
       </c>
       <c r="H63" s="2">
-        <v>44152</v>
+        <v>44145</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D64" s="2">
-        <v>44153</v>
+        <v>44146</v>
       </c>
       <c r="E64" s="2">
-        <v>44405</v>
+        <v>44152</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" s="2">
-        <v>44153</v>
+        <v>44146</v>
       </c>
       <c r="H64" s="2">
-        <v>44405</v>
+        <v>44152</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2891,103 +2888,103 @@
         <v>1</v>
       </c>
       <c r="K64">
-        <v>252</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D65" s="2">
-        <v>44406</v>
+        <v>44153</v>
       </c>
       <c r="E65" s="2">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" s="2">
-        <v>44406</v>
+        <v>44153</v>
       </c>
       <c r="H65" s="2">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65">
-        <v>69</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66" s="2">
+        <v>44406</v>
+      </c>
+      <c r="E66" s="2">
         <v>44475</v>
       </c>
-      <c r="E66" s="2">
-        <v>44592</v>
-      </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="2">
+        <v>44406</v>
+      </c>
+      <c r="H66" s="2">
         <v>44475</v>
       </c>
-      <c r="H66" s="2">
-        <v>44592</v>
-      </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D67" s="2">
-        <v>44593</v>
+        <v>44475</v>
       </c>
       <c r="E67" s="2">
-        <v>44600</v>
+        <v>44592</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" s="2">
-        <v>44593</v>
+        <v>44475</v>
       </c>
       <c r="H67" s="2">
-        <v>44600</v>
+        <v>44592</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2996,34 +2993,34 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D68" s="2">
+        <v>44593</v>
+      </c>
+      <c r="E68" s="2">
         <v>44600</v>
       </c>
-      <c r="E68" s="2">
-        <v>44889</v>
-      </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" s="2">
+        <v>44593</v>
+      </c>
+      <c r="H68" s="2">
         <v>44600</v>
       </c>
-      <c r="H68" s="2">
-        <v>44889</v>
-      </c>
       <c r="I68">
         <v>0</v>
       </c>
@@ -3031,33 +3028,33 @@
         <v>1</v>
       </c>
       <c r="K68">
-        <v>289</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" s="2">
-        <v>44890</v>
+        <v>44600</v>
       </c>
       <c r="E69" s="2">
-        <v>44902</v>
+        <v>44889</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" s="2">
-        <v>44890</v>
+        <v>44600</v>
       </c>
       <c r="H69" s="2">
-        <v>44902</v>
+        <v>44889</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3066,33 +3063,33 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>12</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D70" s="2">
-        <v>44905</v>
+        <v>44890</v>
       </c>
       <c r="E70" s="2">
-        <v>44916</v>
+        <v>44902</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" s="2">
-        <v>44905</v>
+        <v>44890</v>
       </c>
       <c r="H70" s="2">
-        <v>44916</v>
+        <v>44902</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3101,42 +3098,42 @@
         <v>1</v>
       </c>
       <c r="K70">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="2">
+        <v>44905</v>
+      </c>
+      <c r="E71" s="2">
         <v>44916</v>
       </c>
-      <c r="E71" s="2">
-        <v>45356</v>
-      </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" s="2">
+        <v>44905</v>
+      </c>
+      <c r="H71" s="2">
         <v>44916</v>
       </c>
-      <c r="H71" s="2">
-        <v>45135</v>
-      </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>219</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3147,7 +3144,7 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72" s="2">
         <v>44916</v>
@@ -3159,53 +3156,88 @@
         <v>0</v>
       </c>
       <c r="G72" s="2">
+        <v>44916</v>
+      </c>
+      <c r="H72" s="2">
         <v>45135</v>
       </c>
-      <c r="H72" s="2">
-        <v>45356</v>
-      </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D73" s="2">
+        <v>44916</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45356</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>45135</v>
+      </c>
+      <c r="H73" s="2">
+        <v>45356</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="2">
         <v>45357</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E74" s="2">
         <v>45866</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73" s="2">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2">
         <v>45357</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H74" s="2">
         <v>45866</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
         <v>509</v>
       </c>
     </row>
